--- a/data/income_statement/3digits/total/821_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/821_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>821-Office administrative and support activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>821-Office administrative and support activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>62725.35814</v>
@@ -965,7 +871,7 @@
         <v>120011.79761</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>124744.09118</v>
+        <v>124768.40846</v>
       </c>
       <c r="I5" s="47" t="n">
         <v>144268.26021</v>
@@ -977,16 +883,21 @@
         <v>211504.43938</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>319700.50389</v>
+        <v>320212.67243</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>295796.01724</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>302377.11106</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>294561.348</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>61348.338</v>
@@ -998,13 +909,13 @@
         <v>95509.89487999999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>99163.22025999999</v>
+        <v>99163.22026</v>
       </c>
       <c r="G6" s="48" t="n">
         <v>117121.55695</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>121924.00116</v>
+        <v>121948.31844</v>
       </c>
       <c r="I6" s="48" t="n">
         <v>141190.00228</v>
@@ -1016,16 +927,21 @@
         <v>207075.79926</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>313698.70174</v>
+        <v>314210.47451</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>289197.64156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>294979.1261000001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>286336.117</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>578.3129399999999</v>
@@ -1058,13 +974,18 @@
         <v>206.02839</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>54.7149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>55.64507</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1207.09</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>798.7071999999999</v>
@@ -1094,16 +1015,21 @@
         <v>3954.22611</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>5795.77376</v>
+        <v>5796.16953</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>6543.66078</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>7342.339889999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>7018.141</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>187.2252</v>
@@ -1136,13 +1062,18 @@
         <v>385.8015</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1068.6744</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1070.30068</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2892.269</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>146.78824</v>
@@ -1172,25 +1103,30 @@
         <v>316.91953</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>296.8680100000001</v>
+        <v>296.86801</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1059.04549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1060.67177</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>2880.889</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>39.99545000000001</v>
+        <v>39.99545</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>30.44822</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>33.10494</v>
+        <v>33.10493999999999</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>280.08183</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>9.378909999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>8.228</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0.4415100000000001</v>
@@ -1255,29 +1196,34 @@
       <c r="M12" s="48" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>3.152</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>62538.13294</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>78034.06633000002</v>
+        <v>78034.06633</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>95985.84815999999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>99148.16863999999</v>
+        <v>99148.16864</v>
       </c>
       <c r="G13" s="47" t="n">
         <v>119506.94326</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>124594.05914</v>
+        <v>124618.37642</v>
       </c>
       <c r="I13" s="47" t="n">
         <v>144080.50763</v>
@@ -1289,16 +1235,21 @@
         <v>209627.73549</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>319314.70239</v>
+        <v>319826.87093</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>294727.34284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>301306.81038</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>291669.079</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>46314.83380000001</v>
@@ -1307,16 +1258,16 @@
         <v>59425.27725</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>72718.49493</v>
+        <v>72718.49492999999</v>
       </c>
       <c r="F14" s="47" t="n">
         <v>70792.07512000001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>86949.78358000002</v>
+        <v>86949.78358</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>88536.52588</v>
+        <v>88537.5959</v>
       </c>
       <c r="I14" s="47" t="n">
         <v>100473.90918</v>
@@ -1328,16 +1279,21 @@
         <v>153262.96891</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>261742.97259</v>
+        <v>261856.23081</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>239692.88683</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>244361.52922</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>244187.816</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>5033.87473</v>
@@ -1364,19 +1320,24 @@
         <v>4831.24313</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>7704.851369999999</v>
+        <v>7704.85137</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>9424.469050000002</v>
+        <v>9441.559019999999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>11307.1009</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>11461.66961</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>13130.329</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>23583.8782</v>
@@ -1385,7 +1346,7 @@
         <v>31918.64441</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>42338.76985999999</v>
+        <v>42338.76986</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>41548.84473</v>
@@ -1394,10 +1355,10 @@
         <v>46403.93091999999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>46573.54543999999</v>
+        <v>46574.61546</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>53279.94757</v>
+        <v>53279.94756999999</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>54376.38089</v>
@@ -1406,16 +1367,21 @@
         <v>75718.52956</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>146069.04342</v>
+        <v>146164.20774</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>122264.27956</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>124892.90926</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>144772.27</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>17670.56687</v>
@@ -1433,7 +1399,7 @@
         <v>31738.99641</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>38024.58779</v>
+        <v>38024.58779000001</v>
       </c>
       <c r="I17" s="48" t="n">
         <v>44718.27325</v>
@@ -1445,16 +1411,21 @@
         <v>69160.21937999999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>105425.76889</v>
+        <v>105426.77282</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>105274.50032</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>107041.45021</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>85855.715</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>26.514</v>
@@ -1487,13 +1458,18 @@
         <v>823.69123</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>847.0060500000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>965.50014</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>429.502</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>16223.29914</v>
@@ -1505,34 +1481,39 @@
         <v>23267.35323</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>28356.09351999999</v>
+        <v>28356.09352</v>
       </c>
       <c r="G19" s="47" t="n">
         <v>32557.15968</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>36057.53326</v>
+        <v>36080.78052</v>
       </c>
       <c r="I19" s="47" t="n">
         <v>43606.59845</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>47984.07862000001</v>
+        <v>47984.07862</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>56364.76658</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>57571.72979999999</v>
+        <v>57970.64012</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>55034.45600999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>56945.28115999999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>47481.263</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>15051.26155</v>
@@ -1550,28 +1531,33 @@
         <v>28511.42313</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>31132.09674</v>
+        <v>31152.56695</v>
       </c>
       <c r="I20" s="47" t="n">
         <v>37432.56281</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>42633.14970999999</v>
+        <v>42633.14971</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>51359.05966000001</v>
+        <v>51359.05966</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>56774.43897</v>
+        <v>57079.88199</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>52685.99273999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>54879.74528</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>46967.763</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2.51177</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>2.215</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1446.02125</v>
@@ -1643,13 +1634,18 @@
         <v>6456.503299999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>4994.471140000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4994.47114</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>5177.02</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>13602.72853</v>
@@ -1667,10 +1663,10 @@
         <v>26148.26648</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>29164.25329</v>
+        <v>29184.7235</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>35033.27354</v>
+        <v>35033.27354000001</v>
       </c>
       <c r="J23" s="48" t="n">
         <v>37727.06008</v>
@@ -1679,16 +1675,21 @@
         <v>48248.25831</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>50312.15039</v>
+        <v>50617.59340999999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>47691.52159999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>49885.27414</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>41788.528</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>1172.03759</v>
@@ -1706,28 +1707,33 @@
         <v>4045.73655</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4925.436519999999</v>
+        <v>4928.21357</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>6174.035639999999</v>
+        <v>6174.035640000001</v>
       </c>
       <c r="J24" s="47" t="n">
         <v>5350.928910000001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>5005.706919999999</v>
+        <v>5005.70692</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>797.2908299999999</v>
+        <v>890.7581300000001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2348.46327</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2065.53588</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>513.5</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1463.52637</v>
@@ -1736,10 +1742,10 @@
         <v>560.50495</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>585.95719</v>
+        <v>585.9571900000001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>984.3212799999999</v>
+        <v>984.32128</v>
       </c>
       <c r="G25" s="47" t="n">
         <v>1211.75449</v>
@@ -1760,13 +1766,18 @@
         <v>1608.13196</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1272.83739</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1289.99447</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1434.211</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0.63852</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1067.07522</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>35.05526</v>
@@ -1877,13 +1898,18 @@
         <v>141.71264</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>213.91264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>219.06972</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>161.861</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.02767</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1955,13 +1986,18 @@
         <v>34.52725</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>8.46796</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>20.46796</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>42.17772</v>
@@ -1976,7 +2012,7 @@
         <v>52.01244000000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>75.85760999999998</v>
+        <v>75.85761000000001</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>21.28818</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>237.52445</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>162.037</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>132.3968</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>286.74164</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>663.066</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>6.18114</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>179.97404</v>
@@ -2152,23 +2208,28 @@
       <c r="M35" s="48" t="n">
         <v>526.1907</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="48" t="n">
+        <v>447.247</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>474.87858</v>
+        <v>474.8785799999999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>557.0377999999999</v>
+        <v>557.0378000000001</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>483.33289</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>344.8384500000001</v>
+        <v>344.83845</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>1318.07122</v>
@@ -2189,13 +2250,18 @@
         <v>560.1617199999999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1229.06412</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1229.60705</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>858.273</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>65.90764999999999</v>
@@ -2228,13 +2294,18 @@
         <v>26.49583</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>31.5554</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>32.09833</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>16.189</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>19.29842</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>2.23201</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>10.918</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>204.13199</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>1156.01599</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>806.181</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>3.57094</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>4e-05</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>179.73753</v>
@@ -2464,14 +2560,19 @@
       <c r="M43" s="48" t="n">
         <v>41.49272999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>24.985</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>888.5964399999999</v>
+        <v>888.59644</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>611.38213</v>
@@ -2498,16 +2599,21 @@
         <v>1773.5989</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2691.7845</v>
+        <v>2692.59</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2930.32364</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3204.06564</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2976.764</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>888.5964399999999</v>
@@ -2537,16 +2643,21 @@
         <v>1669.82292</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2515.08892</v>
+        <v>2515.89442</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2808.27663</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>3082.01863</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2918.145</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>122.04701</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>58.619</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>1272.08894</v>
@@ -2603,28 +2719,33 @@
         <v>2498.80855</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3253.93153</v>
+        <v>3256.70858</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>5077.311369999999</v>
+        <v>5077.31137</v>
       </c>
       <c r="J47" s="47" t="n">
         <v>3917.18974</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>3656.14811</v>
+        <v>3656.148110000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-846.52343</v>
+        <v>-753.8616299999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-538.0870999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-1078.14234</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-1887.326</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>764.52206</v>
@@ -2639,10 +2760,10 @@
         <v>542.7588499999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>333.08256</v>
+        <v>333.0825600000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>384.50943</v>
+        <v>384.5094300000001</v>
       </c>
       <c r="I48" s="47" t="n">
         <v>381.64096</v>
@@ -2654,16 +2775,21 @@
         <v>1265.55625</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>650.3069099999999</v>
+        <v>650.3121100000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>810.4498599999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>880.83381</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1270.193</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
@@ -2698,14 +2824,19 @@
       <c r="M49" s="48" t="n">
         <v>2.80643</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>764.52206</v>
+        <v>764.5220599999999</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>258.85918</v>
@@ -2714,7 +2845,7 @@
         <v>169.37349</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>512.4286800000001</v>
+        <v>512.42868</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>305.34696</v>
@@ -2732,16 +2863,21 @@
         <v>1264.66825</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>644.1388700000001</v>
+        <v>644.1440700000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>807.6434300000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>878.02738</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1270.193</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1099.7016</v>
@@ -2756,7 +2892,7 @@
         <v>1955.28698</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>530.0488200000001</v>
+        <v>530.04882</v>
       </c>
       <c r="H51" s="47" t="n">
         <v>3388.23189</v>
@@ -2771,16 +2907,21 @@
         <v>1943.21048</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2107.98068</v>
+        <v>2110.20322</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1357.42098</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1361.38216</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2053.453</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0.39608</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>72.902</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>21.64937</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>1.9528</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1078.05223</v>
@@ -2879,7 +3030,7 @@
         <v>3385.89207</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>649.9790700000001</v>
+        <v>649.97907</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>2135.22123</v>
@@ -2888,16 +3039,21 @@
         <v>1923.55091</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2088.34918</v>
+        <v>2090.57172</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1355.0721</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1359.03328</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1980.147</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>936.9094</v>
@@ -2915,10 +3071,10 @@
         <v>2301.84229</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>250.20907</v>
+        <v>252.98612</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>4808.542310000001</v>
+        <v>4808.54231</v>
       </c>
       <c r="J55" s="47" t="n">
         <v>2718.25083</v>
@@ -2927,16 +3083,21 @@
         <v>2978.49388</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-2304.1972</v>
+        <v>-2213.75274</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-1085.05822</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-1558.69069</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-2670.586</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>364.10329</v>
@@ -2945,10 +3106,10 @@
         <v>508.44839</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>584.43598</v>
+        <v>584.4359800000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>832.98351</v>
+        <v>832.9835100000001</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>1030.42441</v>
@@ -2966,16 +3127,21 @@
         <v>1297.65562</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1109.43416</v>
+        <v>1109.8953</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1392.0213</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1434.90099</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1101.378</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>572.8061100000001</v>
@@ -2987,13 +3153,13 @@
         <v>-1056.74962</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>571.0489900000001</v>
+        <v>571.04899</v>
       </c>
       <c r="G57" s="47" t="n">
         <v>1271.41788</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-624.58136</v>
+        <v>-621.8043100000001</v>
       </c>
       <c r="I57" s="47" t="n">
         <v>3598.76198</v>
@@ -3005,13 +3171,16 @@
         <v>1680.83826</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-3413.63136</v>
+        <v>-3323.64804</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-2477.07952</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-2993.59168</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-3771.964</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>136</v>
@@ -3047,7 +3219,7 @@
         <v>169</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I59" s="35" t="n">
         <v>193</v>
@@ -3059,13 +3231,16 @@
         <v>212</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>219</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>